--- a/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>415.4452897795954</v>
+        <v>129.9229398198241</v>
       </c>
       <c r="C2">
-        <v>31.31427038091208</v>
+        <v>9.792967127775968</v>
       </c>
       <c r="D2">
-        <v>149.5431266855546</v>
+        <v>46.76688634294847</v>
       </c>
       <c r="E2">
-        <v>67.15707037592391</v>
+        <v>21.00214932646323</v>
       </c>
       <c r="F2">
-        <v>137.1082474288645</v>
+        <v>42.87810457293291</v>
       </c>
       <c r="G2">
-        <v>230.9449168199506</v>
+        <v>72.22381205864959</v>
       </c>
       <c r="H2">
-        <v>19.79857173945185</v>
+        <v>6.191642336318069</v>
       </c>
       <c r="I2">
-        <v>1051.311493210253</v>
+        <v>328.7785015849124</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>410.724320577555</v>
+        <v>128.4465427764171</v>
       </c>
       <c r="C3">
-        <v>33.27141227971909</v>
+        <v>10.40502757326197</v>
       </c>
       <c r="D3">
-        <v>170.9064304977767</v>
+        <v>53.44787010622684</v>
       </c>
       <c r="E3">
-        <v>64.99071326702315</v>
+        <v>20.3246606385128</v>
       </c>
       <c r="F3">
-        <v>138.295331822188</v>
+        <v>43.24934357356436</v>
       </c>
       <c r="G3">
-        <v>259.5154219935528</v>
+        <v>81.15871664322478</v>
       </c>
       <c r="H3">
-        <v>20.96319360647843</v>
+        <v>6.555856591395603</v>
       </c>
       <c r="I3">
-        <v>1098.666824044293</v>
+        <v>343.5880179026034</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>464.3073210207187</v>
+        <v>145.2036492190874</v>
       </c>
       <c r="C4">
-        <v>33.92379291265476</v>
+        <v>10.6090477217573</v>
       </c>
       <c r="D4">
-        <v>185.8607431663322</v>
+        <v>58.12455874052168</v>
       </c>
       <c r="E4">
-        <v>75.82249881152701</v>
+        <v>23.71210407826494</v>
       </c>
       <c r="F4">
-        <v>163.2241040819816</v>
+        <v>51.04536258682489</v>
       </c>
       <c r="G4">
-        <v>197.6126607840816</v>
+        <v>61.79975670997852</v>
       </c>
       <c r="H4">
-        <v>11.64621867026579</v>
+        <v>3.642142550775335</v>
       </c>
       <c r="I4">
-        <v>1132.397339447562</v>
+        <v>354.1366216072101</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>501.1308807966374</v>
+        <v>156.7195461576628</v>
       </c>
       <c r="C5">
-        <v>21.52856088687707</v>
+        <v>6.732664900345979</v>
       </c>
       <c r="D5">
-        <v>190.1334039287767</v>
+        <v>59.46075549317734</v>
       </c>
       <c r="E5">
-        <v>80.15521302932856</v>
+        <v>25.06708145416578</v>
       </c>
       <c r="F5">
-        <v>141.8565850021585</v>
+        <v>44.36306057545872</v>
       </c>
       <c r="G5">
-        <v>133.3290241434767</v>
+        <v>41.69622139468431</v>
       </c>
       <c r="H5">
-        <v>8.152353069186056</v>
+        <v>2.549499785542735</v>
       </c>
       <c r="I5">
-        <v>1076.286020856441</v>
+        <v>336.5888297610376</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>608.5329301430671</v>
+        <v>190.3075788951742</v>
       </c>
       <c r="C6">
-        <v>31.96665101384777</v>
+        <v>9.996987276271302</v>
       </c>
       <c r="D6">
-        <v>134.5888140169992</v>
+        <v>42.09019770865364</v>
       </c>
       <c r="E6">
-        <v>149.4786405141532</v>
+        <v>46.74671946857943</v>
       </c>
       <c r="F6">
-        <v>101.4957156291594</v>
+        <v>31.74093455398929</v>
       </c>
       <c r="G6">
-        <v>73.80713836513888</v>
+        <v>23.08183684348595</v>
       </c>
       <c r="H6">
-        <v>24.45705920755817</v>
+        <v>7.648499356628204</v>
       </c>
       <c r="I6">
-        <v>1124.326948889924</v>
+        <v>351.612754102782</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>607.5887363026588</v>
+        <v>190.0122994864928</v>
       </c>
       <c r="C7">
-        <v>17.61427708926305</v>
+        <v>5.508544009373982</v>
       </c>
       <c r="D7">
-        <v>96.13486715499941</v>
+        <v>30.0644269347526</v>
       </c>
       <c r="E7">
-        <v>164.6431402764586</v>
+        <v>51.48914028423241</v>
       </c>
       <c r="F7">
-        <v>58.16713527285161</v>
+        <v>18.19071103094123</v>
       </c>
       <c r="G7">
-        <v>35.71313146700268</v>
+        <v>11.16863073071901</v>
       </c>
       <c r="H7">
-        <v>13.97546240431896</v>
+        <v>4.370571060930402</v>
       </c>
       <c r="I7">
-        <v>993.8367499675531</v>
+        <v>310.8043235374425</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>424.4151312634735</v>
+        <v>132.7280942022976</v>
       </c>
       <c r="C8">
-        <v>18.26665772219872</v>
+        <v>5.712564157869314</v>
       </c>
       <c r="D8">
-        <v>83.31688486766616</v>
+        <v>26.05583667678559</v>
       </c>
       <c r="E8">
-        <v>106.1514983361378</v>
+        <v>33.1969457095709</v>
       </c>
       <c r="F8">
-        <v>44.51566474963134</v>
+        <v>13.92146252367952</v>
       </c>
       <c r="G8">
-        <v>42.85575776040322</v>
+        <v>13.40235687686281</v>
       </c>
       <c r="H8">
-        <v>1.164621867026579</v>
+        <v>0.3642142550775334</v>
       </c>
       <c r="I8">
-        <v>720.6862165665373</v>
+        <v>225.3814744021433</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>346.5191394297989</v>
+        <v>108.3675429860806</v>
       </c>
       <c r="C9">
-        <v>16.30951582339171</v>
+        <v>5.100503712383317</v>
       </c>
       <c r="D9">
-        <v>59.81725067422186</v>
+        <v>18.70675453717939</v>
       </c>
       <c r="E9">
-        <v>158.1440689497563</v>
+        <v>49.45667422038115</v>
       </c>
       <c r="F9">
-        <v>25.5223144564553</v>
+        <v>7.981638513576256</v>
       </c>
       <c r="G9">
-        <v>23.80875431133512</v>
+        <v>7.445753820479341</v>
       </c>
       <c r="H9">
-        <v>3.493865601079739</v>
+        <v>1.092642765232601</v>
       </c>
       <c r="I9">
-        <v>633.6149092460389</v>
+        <v>198.1515105553127</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>256.3486276708187</v>
+        <v>80.16835945700514</v>
       </c>
       <c r="C10">
-        <v>11.74285139284203</v>
+        <v>3.672362672915988</v>
       </c>
       <c r="D10">
-        <v>46.99926838688859</v>
+        <v>14.69816427921237</v>
       </c>
       <c r="E10">
-        <v>103.985141227237</v>
+        <v>32.51945702162049</v>
       </c>
       <c r="F10">
-        <v>23.1481456698083</v>
+        <v>7.239160512313349</v>
       </c>
       <c r="G10">
-        <v>23.80875431133512</v>
+        <v>7.445753820479341</v>
       </c>
       <c r="H10">
-        <v>4.658487468106317</v>
+        <v>1.456857020310134</v>
       </c>
       <c r="I10">
-        <v>470.6912761270361</v>
+        <v>147.2001147838569</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>196.6283672650017</v>
+        <v>61.49193685790539</v>
       </c>
       <c r="C11">
-        <v>18.91903835513439</v>
+        <v>5.916584306364648</v>
       </c>
       <c r="D11">
-        <v>46.99926838688859</v>
+        <v>14.69816427921237</v>
       </c>
       <c r="E11">
-        <v>47.65985639581697</v>
+        <v>14.90475113490939</v>
       </c>
       <c r="F11">
-        <v>23.74168786647004</v>
+        <v>7.424780012629076</v>
       </c>
       <c r="G11">
-        <v>35.71313146700268</v>
+        <v>11.16863073071901</v>
       </c>
       <c r="H11">
-        <v>3.493865601079739</v>
+        <v>1.092642765232601</v>
       </c>
       <c r="I11">
-        <v>373.1552153373941</v>
+        <v>116.6974900869725</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>121.092860032348</v>
+        <v>37.86958416339186</v>
       </c>
       <c r="C12">
-        <v>17.61427708926305</v>
+        <v>5.508544009373982</v>
       </c>
       <c r="D12">
-        <v>10.68165190611104</v>
+        <v>3.340491881639178</v>
       </c>
       <c r="E12">
-        <v>17.33085687120617</v>
+        <v>5.419909503603412</v>
       </c>
       <c r="F12">
-        <v>14.24501271988203</v>
+        <v>4.454868007577444</v>
       </c>
       <c r="G12">
-        <v>38.09400689813619</v>
+        <v>11.91320611276694</v>
       </c>
       <c r="I12">
-        <v>219.0586655169465</v>
+        <v>68.50660367835282</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>75.53550723265376</v>
+        <v>23.62235269451349</v>
       </c>
       <c r="C13">
-        <v>21.52856088687707</v>
+        <v>6.732664900345979</v>
       </c>
       <c r="D13">
-        <v>8.545321524888836</v>
+        <v>2.672393505311342</v>
       </c>
       <c r="E13">
-        <v>8.665428435603085</v>
+        <v>2.709954751801706</v>
       </c>
       <c r="F13">
-        <v>18.99335029317604</v>
+        <v>5.939824010103259</v>
       </c>
       <c r="G13">
-        <v>35.71313146700268</v>
+        <v>11.16863073071901</v>
       </c>
       <c r="H13">
-        <v>1.164621867026579</v>
+        <v>0.3642142550775334</v>
       </c>
       <c r="I13">
-        <v>170.145921707228</v>
+        <v>53.21003484787231</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>47.44574048051063</v>
+        <v>14.83779028624128</v>
       </c>
       <c r="C14">
-        <v>17.61427708926305</v>
+        <v>5.508544009373982</v>
       </c>
       <c r="D14">
-        <v>8.545321524888836</v>
+        <v>2.672393505311342</v>
       </c>
       <c r="E14">
-        <v>6.499071326702314</v>
+        <v>2.032466063851281</v>
       </c>
       <c r="F14">
-        <v>16.02563930986728</v>
+        <v>5.011726508524626</v>
       </c>
       <c r="G14">
-        <v>76.18801379627237</v>
+        <v>23.82641222553388</v>
       </c>
       <c r="H14">
-        <v>1.164621867026579</v>
+        <v>0.3642142550775334</v>
       </c>
       <c r="I14">
-        <v>173.482685394531</v>
+        <v>54.25354685391392</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,25 +812,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>35.17122055520441</v>
+        <v>10.99915797338284</v>
       </c>
       <c r="C15">
-        <v>11.09047075990636</v>
+        <v>3.468342524420656</v>
       </c>
       <c r="D15">
-        <v>6.408991143666627</v>
+        <v>2.004295128983506</v>
       </c>
       <c r="F15">
-        <v>10.68375953991152</v>
+        <v>3.341151005683084</v>
       </c>
       <c r="G15">
-        <v>59.52188577833782</v>
+        <v>18.61438455119834</v>
       </c>
       <c r="H15">
-        <v>2.329243734053159</v>
+        <v>0.7284285101550668</v>
       </c>
       <c r="I15">
-        <v>125.2055715110799</v>
+        <v>39.1557596938235</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,28 +838,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>37.05960823602075</v>
+        <v>11.58971679074568</v>
       </c>
       <c r="C16">
-        <v>5.871425696421017</v>
+        <v>1.836181336457994</v>
       </c>
       <c r="D16">
-        <v>21.36330381222208</v>
+        <v>6.680983763278356</v>
       </c>
       <c r="E16">
-        <v>10.83178554450386</v>
+        <v>3.387443439752134</v>
       </c>
       <c r="F16">
-        <v>12.46438612989678</v>
+        <v>3.898009506630264</v>
       </c>
       <c r="G16">
-        <v>69.04538750287185</v>
+        <v>21.59268607939009</v>
       </c>
       <c r="H16">
-        <v>1.164621867026579</v>
+        <v>0.3642142550775334</v>
       </c>
       <c r="I16">
-        <v>157.8005187889629</v>
+        <v>49.34923517133205</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,28 +867,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>84.74139717663344</v>
+        <v>26.50132692915731</v>
       </c>
       <c r="C17">
-        <v>5.871425696421017</v>
+        <v>1.836181336457994</v>
       </c>
       <c r="D17">
-        <v>21.36330381222208</v>
+        <v>6.680983763278356</v>
       </c>
       <c r="E17">
-        <v>6.499071326702314</v>
+        <v>2.032466063851281</v>
       </c>
       <c r="F17">
-        <v>22.55460347314655</v>
+        <v>7.053541011997622</v>
       </c>
       <c r="G17">
-        <v>92.85414181420695</v>
+        <v>29.03843989986943</v>
       </c>
       <c r="H17">
-        <v>2.329243734053159</v>
+        <v>0.7284285101550668</v>
       </c>
       <c r="I17">
-        <v>236.2131870333855</v>
+        <v>73.87136751476706</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -896,28 +896,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>180.813120438165</v>
+        <v>56.54600676249162</v>
       </c>
       <c r="C18">
-        <v>9.78570949403503</v>
+        <v>3.06030222742999</v>
       </c>
       <c r="D18">
-        <v>44.86293800566639</v>
+        <v>14.03006590288455</v>
       </c>
       <c r="E18">
-        <v>73.65614170262623</v>
+        <v>23.03461539031451</v>
       </c>
       <c r="F18">
-        <v>52.23171330623411</v>
+        <v>16.33451602778396</v>
       </c>
       <c r="G18">
-        <v>121.4246469878091</v>
+        <v>37.97334448444462</v>
       </c>
       <c r="H18">
-        <v>6.987731202159478</v>
+        <v>2.185285530465201</v>
       </c>
       <c r="I18">
-        <v>489.7620011366954</v>
+        <v>153.1641363258144</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,28 +925,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>315.3607426963296</v>
+        <v>98.62332249959375</v>
       </c>
       <c r="C19">
-        <v>11.74285139284203</v>
+        <v>3.672362672915988</v>
       </c>
       <c r="D19">
-        <v>117.4981709672215</v>
+        <v>36.74541069803095</v>
       </c>
       <c r="E19">
-        <v>201.4712111277718</v>
+        <v>63.00644797938967</v>
       </c>
       <c r="F19">
-        <v>96.15383585920371</v>
+        <v>30.07035905114775</v>
       </c>
       <c r="G19">
-        <v>171.4230310416129</v>
+        <v>53.60942750745124</v>
       </c>
       <c r="H19">
-        <v>11.64621867026579</v>
+        <v>3.642142550775335</v>
       </c>
       <c r="I19">
-        <v>925.2960617552473</v>
+        <v>289.3694729593047</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>537.0102467321477</v>
+        <v>167.9401636875567</v>
       </c>
       <c r="C20">
-        <v>13.04761265871337</v>
+        <v>4.080402969906654</v>
       </c>
       <c r="D20">
-        <v>145.2704659231102</v>
+        <v>45.43068959029282</v>
       </c>
       <c r="E20">
-        <v>197.1384969099702</v>
+        <v>61.65147060348882</v>
       </c>
       <c r="F20">
-        <v>109.2117641857622</v>
+        <v>34.15398805809374</v>
       </c>
       <c r="G20">
-        <v>235.7066676822177</v>
+        <v>73.71296282274547</v>
       </c>
       <c r="H20">
-        <v>23.29243734053159</v>
+        <v>7.284285101550671</v>
       </c>
       <c r="I20">
-        <v>1260.677691432453</v>
+        <v>394.2539628336348</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>566.0442073246992</v>
+        <v>177.0200055045102</v>
       </c>
       <c r="C21">
-        <v>19.57141898807006</v>
+        <v>6.120604454859979</v>
       </c>
       <c r="D21">
-        <v>115.3618405859993</v>
+        <v>36.07731232170312</v>
       </c>
       <c r="E21">
-        <v>136.4804978607486</v>
+        <v>42.68178734087688</v>
       </c>
       <c r="F21">
-        <v>94.37320926921842</v>
+        <v>29.51350055020058</v>
       </c>
       <c r="G21">
-        <v>192.8509099218145</v>
+        <v>60.31060594588266</v>
       </c>
       <c r="H21">
-        <v>16.30470613837211</v>
+        <v>5.098999571085471</v>
       </c>
       <c r="I21">
-        <v>1140.986790088922</v>
+        <v>356.822815689119</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>455.3374795368409</v>
+        <v>142.398494836614</v>
       </c>
       <c r="C22">
-        <v>28.05236721623374</v>
+        <v>8.772866385299304</v>
       </c>
       <c r="D22">
-        <v>200.8150558348877</v>
+        <v>62.80124737481653</v>
       </c>
       <c r="E22">
-        <v>106.1514983361378</v>
+        <v>33.1969457095709</v>
       </c>
       <c r="F22">
-        <v>158.4757665086876</v>
+        <v>49.56040658429907</v>
       </c>
       <c r="G22">
-        <v>340.4651866520923</v>
+        <v>106.4742796328545</v>
       </c>
       <c r="H22">
-        <v>19.79857173945185</v>
+        <v>6.191642336318069</v>
       </c>
       <c r="I22">
-        <v>1309.095925824332</v>
+        <v>409.3958828597724</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>357.6134170545952</v>
+        <v>111.8370760380873</v>
       </c>
       <c r="C23">
-        <v>28.05236721623374</v>
+        <v>8.772866385299304</v>
       </c>
       <c r="D23">
-        <v>162.3611089728879</v>
+        <v>50.7754766009155</v>
       </c>
       <c r="E23">
-        <v>64.99071326702315</v>
+        <v>20.3246606385128</v>
       </c>
       <c r="F23">
-        <v>156.1015977220406</v>
+        <v>48.81792858303617</v>
       </c>
       <c r="G23">
-        <v>330.9416849275582</v>
+        <v>103.4959781046628</v>
       </c>
       <c r="H23">
-        <v>11.64621867026579</v>
+        <v>3.642142550775335</v>
       </c>
       <c r="I23">
-        <v>1111.707107830605</v>
+        <v>347.6661289012893</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>406.239399835616</v>
+        <v>127.0439655851803</v>
       </c>
       <c r="C24">
-        <v>28.70474784916942</v>
+        <v>8.976886533794637</v>
       </c>
       <c r="D24">
-        <v>168.7701001165545</v>
+        <v>52.779771729899</v>
       </c>
       <c r="E24">
-        <v>99.65242700943551</v>
+        <v>31.16447964571962</v>
       </c>
       <c r="F24">
-        <v>162.0370196886581</v>
+        <v>50.67412358619344</v>
       </c>
       <c r="G24">
-        <v>292.847678029422</v>
+        <v>91.58277199189588</v>
       </c>
       <c r="H24">
-        <v>24.45705920755817</v>
+        <v>7.648499356628204</v>
       </c>
       <c r="I24">
-        <v>1182.708431736414</v>
+        <v>369.8704984293111</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>389.7160076284729</v>
+        <v>121.8765759332555</v>
       </c>
       <c r="C25">
-        <v>26.74760595036242</v>
+        <v>8.364826088308639</v>
       </c>
       <c r="D25">
-        <v>121.7708317296659</v>
+        <v>38.08160745068661</v>
       </c>
       <c r="E25">
-        <v>95.31971279163395</v>
+        <v>29.80950226981877</v>
       </c>
       <c r="F25">
-        <v>109.2117641857622</v>
+        <v>34.15398805809374</v>
       </c>
       <c r="G25">
-        <v>257.1345465624192</v>
+        <v>80.41414126117685</v>
       </c>
       <c r="H25">
-        <v>15.14008427134554</v>
+        <v>4.734785316007936</v>
       </c>
       <c r="I25">
-        <v>1015.040553119662</v>
+        <v>317.4354263773481</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>392.0764922294935</v>
+        <v>122.614774454959</v>
       </c>
       <c r="C26">
-        <v>23.48570278568407</v>
+        <v>7.344725345831977</v>
       </c>
       <c r="D26">
-        <v>115.3618405859993</v>
+        <v>36.07731232170312</v>
       </c>
       <c r="E26">
-        <v>67.15707037592391</v>
+        <v>21.00214932646323</v>
       </c>
       <c r="F26">
-        <v>138.8888740188498</v>
+        <v>43.43496307388008</v>
       </c>
       <c r="G26">
-        <v>269.0389237180868</v>
+        <v>84.13701817141651</v>
       </c>
       <c r="H26">
-        <v>24.45705920755817</v>
+        <v>7.648499356628204</v>
       </c>
       <c r="I26">
-        <v>1030.465962921596</v>
+        <v>322.2594420508821</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>422.7627920427588</v>
+        <v>132.2113552371051</v>
       </c>
       <c r="C27">
-        <v>25.44284468449106</v>
+        <v>7.956785791317975</v>
       </c>
       <c r="D27">
-        <v>183.72441278511</v>
+        <v>57.45646036419385</v>
       </c>
       <c r="E27">
-        <v>97.48606990053474</v>
+        <v>30.48699095776919</v>
       </c>
       <c r="F27">
-        <v>134.1405364455558</v>
+        <v>41.95000707135428</v>
       </c>
       <c r="G27">
-        <v>209.517037939749</v>
+        <v>65.5226336202182</v>
       </c>
       <c r="H27">
-        <v>17.46932800539869</v>
+        <v>5.463213826163003</v>
       </c>
       <c r="I27">
-        <v>1090.543021803598</v>
+        <v>341.0474468681215</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>434.3291665877592</v>
+        <v>135.8285279934525</v>
       </c>
       <c r="C28">
-        <v>22.18094151981273</v>
+        <v>6.936685048841311</v>
       </c>
       <c r="D28">
-        <v>190.1334039287767</v>
+        <v>59.46075549317734</v>
       </c>
       <c r="E28">
-        <v>77.9888559204278</v>
+        <v>24.38959276621537</v>
       </c>
       <c r="F28">
-        <v>131.172825462247</v>
+        <v>41.02190956977564</v>
       </c>
       <c r="G28">
-        <v>247.6110448378853</v>
+        <v>77.4358397329851</v>
       </c>
       <c r="H28">
-        <v>17.46932800539869</v>
+        <v>5.463213826163003</v>
       </c>
       <c r="I28">
-        <v>1120.885566262307</v>
+        <v>350.5365244306102</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>501.3669292567394</v>
+        <v>156.7933660098332</v>
       </c>
       <c r="C29">
-        <v>21.52856088687707</v>
+        <v>6.732664900345979</v>
       </c>
       <c r="D29">
-        <v>143.134135541888</v>
+        <v>44.76259121396497</v>
       </c>
       <c r="E29">
-        <v>106.1514983361378</v>
+        <v>33.1969457095709</v>
       </c>
       <c r="F29">
-        <v>122.8632347089825</v>
+        <v>38.42323656535547</v>
       </c>
       <c r="G29">
-        <v>169.0421556104793</v>
+        <v>52.86485212540332</v>
       </c>
       <c r="H29">
-        <v>22.12781547350501</v>
+        <v>6.920070846473137</v>
       </c>
       <c r="I29">
-        <v>1086.214329814609</v>
+        <v>339.693727370947</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>599.3270401990872</v>
+        <v>187.4286046605303</v>
       </c>
       <c r="C30">
-        <v>18.26665772219872</v>
+        <v>5.712564157869314</v>
       </c>
       <c r="D30">
-        <v>147.4067963043325</v>
+        <v>46.09878796662065</v>
       </c>
       <c r="E30">
-        <v>149.4786405141532</v>
+        <v>46.74671946857943</v>
       </c>
       <c r="F30">
-        <v>106.2440532024535</v>
+        <v>33.2258905565151</v>
       </c>
       <c r="G30">
-        <v>102.377643538741</v>
+        <v>32.01674142806115</v>
       </c>
       <c r="H30">
-        <v>13.97546240431896</v>
+        <v>4.370571060930402</v>
       </c>
       <c r="I30">
-        <v>1137.076293885285</v>
+        <v>355.5998792991062</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>626.2365646507201</v>
+        <v>195.8440678079508</v>
       </c>
       <c r="C31">
-        <v>22.18094151981273</v>
+        <v>6.936685048841311</v>
       </c>
       <c r="D31">
-        <v>121.7708317296659</v>
+        <v>38.08160745068661</v>
       </c>
       <c r="E31">
-        <v>173.3085687120617</v>
+        <v>54.19909503603415</v>
       </c>
       <c r="F31">
-        <v>76.56694336936589</v>
+        <v>23.94491554072877</v>
       </c>
       <c r="G31">
-        <v>47.61750862267024</v>
+        <v>14.89150764095868</v>
       </c>
       <c r="H31">
-        <v>2.329243734053159</v>
+        <v>0.7284285101550668</v>
       </c>
       <c r="I31">
-        <v>1070.01060233835</v>
+        <v>334.6263070353554</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>471.8608717439837</v>
+        <v>147.5658844885388</v>
       </c>
       <c r="C32">
-        <v>11.74285139284203</v>
+        <v>3.672362672915988</v>
       </c>
       <c r="D32">
-        <v>83.31688486766616</v>
+        <v>26.05583667678559</v>
       </c>
       <c r="E32">
-        <v>121.3159980984432</v>
+        <v>37.9393665252239</v>
       </c>
       <c r="F32">
-        <v>44.51566474963134</v>
+        <v>13.92146252367952</v>
       </c>
       <c r="G32">
-        <v>61.90276120947131</v>
+        <v>19.35895993324628</v>
       </c>
       <c r="H32">
-        <v>5.823109335132897</v>
+        <v>1.821071275387668</v>
       </c>
       <c r="I32">
-        <v>800.4781413971708</v>
+        <v>250.3349440957778</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>367.2914039187791</v>
+        <v>114.8636899770718</v>
       </c>
       <c r="C33">
-        <v>20.87618025394139</v>
+        <v>6.528644751850646</v>
       </c>
       <c r="D33">
-        <v>87.58954563011058</v>
+        <v>27.39203342944126</v>
       </c>
       <c r="E33">
-        <v>158.1440689497563</v>
+        <v>49.45667422038115</v>
       </c>
       <c r="F33">
-        <v>38.58024278301382</v>
+        <v>12.06526752052225</v>
       </c>
       <c r="G33">
-        <v>35.71313146700268</v>
+        <v>11.16863073071901</v>
       </c>
       <c r="H33">
-        <v>3.493865601079739</v>
+        <v>1.092642765232601</v>
       </c>
       <c r="I33">
-        <v>711.6884386036836</v>
+        <v>222.5675833952187</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>295.5326720477577</v>
+        <v>92.42245491728396</v>
       </c>
       <c r="C34">
-        <v>14.35237392458471</v>
+        <v>4.488443266897319</v>
       </c>
       <c r="D34">
-        <v>70.4989025803329</v>
+        <v>22.04724641881856</v>
       </c>
       <c r="E34">
-        <v>101.8187841183362</v>
+        <v>31.84196833367005</v>
       </c>
       <c r="F34">
-        <v>21.96106127648479</v>
+        <v>6.867921511681895</v>
       </c>
       <c r="G34">
-        <v>33.33225603586916</v>
+        <v>10.42405534867108</v>
       </c>
       <c r="H34">
-        <v>2.329243734053159</v>
+        <v>0.7284285101550668</v>
       </c>
       <c r="I34">
-        <v>539.8252937174186</v>
+        <v>168.8205183071779</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>210.3191779509203</v>
+        <v>65.77348828378595</v>
       </c>
       <c r="C35">
-        <v>19.57141898807006</v>
+        <v>6.120604454859979</v>
       </c>
       <c r="D35">
-        <v>53.40825953055525</v>
+        <v>16.70245940819589</v>
       </c>
       <c r="E35">
-        <v>60.65799904922162</v>
+        <v>18.96968326261195</v>
       </c>
       <c r="F35">
-        <v>18.99335029317604</v>
+        <v>5.939824010103259</v>
       </c>
       <c r="G35">
-        <v>35.71313146700268</v>
+        <v>11.16863073071901</v>
       </c>
       <c r="H35">
-        <v>3.493865601079739</v>
+        <v>1.092642765232601</v>
       </c>
       <c r="I35">
-        <v>402.1572028800257</v>
+        <v>125.7673329155086</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>125.5777807742869</v>
+        <v>39.27216135462862</v>
       </c>
       <c r="C36">
-        <v>25.44284468449106</v>
+        <v>7.956785791317975</v>
       </c>
       <c r="D36">
-        <v>19.22697343099988</v>
+        <v>6.012885386950519</v>
       </c>
       <c r="E36">
-        <v>36.82807085131311</v>
+        <v>11.51730769515726</v>
       </c>
       <c r="F36">
-        <v>17.80626589985254</v>
+        <v>5.568585009471805</v>
       </c>
       <c r="G36">
-        <v>26.18962974246863</v>
+        <v>8.190329202527275</v>
       </c>
       <c r="H36">
-        <v>1.164621867026579</v>
+        <v>0.3642142550775334</v>
       </c>
       <c r="I36">
-        <v>252.2361872504387</v>
+        <v>78.88226869513099</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>100.5566440034704</v>
+        <v>31.44725702457106</v>
       </c>
       <c r="C37">
-        <v>18.91903835513439</v>
+        <v>5.916584306364648</v>
       </c>
       <c r="D37">
-        <v>17.09064304977767</v>
+        <v>5.344787010622683</v>
       </c>
       <c r="E37">
-        <v>23.82992819790849</v>
+        <v>7.452375567454693</v>
       </c>
       <c r="F37">
-        <v>16.61918150652903</v>
+        <v>5.197346008840352</v>
       </c>
       <c r="G37">
-        <v>30.95138060473566</v>
+        <v>9.679479966623138</v>
       </c>
       <c r="H37">
-        <v>5.823109335132897</v>
+        <v>1.821071275387668</v>
       </c>
       <c r="I37">
-        <v>213.7899250526885</v>
+        <v>66.85890115986423</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>52.87485506285763</v>
+        <v>16.53564688615943</v>
       </c>
       <c r="C38">
-        <v>22.18094151981273</v>
+        <v>6.936685048841311</v>
       </c>
       <c r="D38">
-        <v>12.81798228733325</v>
+        <v>4.008590257967013</v>
       </c>
       <c r="E38">
-        <v>4.332714217801542</v>
+        <v>1.354977375900853</v>
       </c>
       <c r="F38">
-        <v>15.43209711320553</v>
+        <v>4.826107008208899</v>
       </c>
       <c r="G38">
-        <v>52.37925948493726</v>
+        <v>16.38065840505455</v>
       </c>
       <c r="H38">
-        <v>1.164621867026579</v>
+        <v>0.3642142550775334</v>
       </c>
       <c r="I38">
-        <v>161.1824715529745</v>
+        <v>50.40687923720959</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>34.93517209510237</v>
+        <v>10.92533812121248</v>
       </c>
       <c r="C39">
-        <v>12.3952320257777</v>
+        <v>3.876382821411322</v>
       </c>
       <c r="D39">
-        <v>12.81798228733325</v>
+        <v>4.008590257967013</v>
       </c>
       <c r="E39">
-        <v>4.332714217801542</v>
+        <v>1.354977375900853</v>
       </c>
       <c r="F39">
-        <v>9.496675146588018</v>
+        <v>2.96991200505163</v>
       </c>
       <c r="G39">
-        <v>35.71313146700268</v>
+        <v>11.16863073071901</v>
       </c>
       <c r="H39">
-        <v>1.164621867026579</v>
+        <v>0.3642142550775334</v>
       </c>
       <c r="I39">
-        <v>110.8555291066321</v>
+        <v>34.66804556733984</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>34.93517209510237</v>
+        <v>10.92533812121248</v>
       </c>
       <c r="C40">
-        <v>7.828567595228021</v>
+        <v>2.448241781943992</v>
       </c>
       <c r="D40">
-        <v>14.95431266855547</v>
+        <v>4.676688634294848</v>
       </c>
       <c r="E40">
-        <v>12.99814265340463</v>
+        <v>4.064932127702561</v>
       </c>
       <c r="F40">
-        <v>16.02563930986728</v>
+        <v>5.011726508524626</v>
       </c>
       <c r="G40">
-        <v>57.14101034720428</v>
+        <v>17.86980916915041</v>
       </c>
       <c r="H40">
-        <v>1.164621867026579</v>
+        <v>0.3642142550775334</v>
       </c>
       <c r="I40">
-        <v>145.0474665363886</v>
+        <v>45.36095059790646</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,28 +1563,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>80.49252489479662</v>
+        <v>25.17256959009093</v>
       </c>
       <c r="C41">
-        <v>6.523806329356687</v>
+        <v>2.040201484953327</v>
       </c>
       <c r="D41">
-        <v>36.31761648077755</v>
+        <v>11.35767239757321</v>
       </c>
       <c r="E41">
-        <v>12.99814265340463</v>
+        <v>4.064932127702561</v>
       </c>
       <c r="F41">
-        <v>24.92877225979355</v>
+        <v>7.796019013260529</v>
       </c>
       <c r="G41">
-        <v>109.5202698321416</v>
+        <v>34.25046757420497</v>
       </c>
       <c r="H41">
-        <v>2.329243734053159</v>
+        <v>0.7284285101550668</v>
       </c>
       <c r="I41">
-        <v>273.1103761843238</v>
+        <v>85.41029069794058</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1592,28 +1592,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>170.8990851138791</v>
+        <v>53.44557297133676</v>
       </c>
       <c r="C42">
-        <v>1.957141898807005</v>
+        <v>0.612060445485998</v>
       </c>
       <c r="D42">
-        <v>49.13559876811082</v>
+        <v>15.36626265554022</v>
       </c>
       <c r="E42">
-        <v>86.65428435603086</v>
+        <v>27.09954751801708</v>
       </c>
       <c r="F42">
-        <v>49.8575445195871</v>
+        <v>15.59203802652106</v>
       </c>
       <c r="G42">
-        <v>121.4246469878091</v>
+        <v>37.97334448444462</v>
       </c>
       <c r="H42">
-        <v>4.658487468106317</v>
+        <v>1.456857020310134</v>
       </c>
       <c r="I42">
-        <v>484.5867891123304</v>
+        <v>151.5456831216559</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1621,28 +1621,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>316.5409849968399</v>
+        <v>98.99242176044554</v>
       </c>
       <c r="C43">
-        <v>9.133328861099361</v>
+        <v>2.856282078934657</v>
       </c>
       <c r="D43">
-        <v>119.6345013484437</v>
+        <v>37.41350907435879</v>
       </c>
       <c r="E43">
-        <v>207.970282454474</v>
+        <v>65.03891404324098</v>
       </c>
       <c r="F43">
-        <v>108.0246797924387</v>
+        <v>33.78274905746229</v>
       </c>
       <c r="G43">
-        <v>169.0421556104793</v>
+        <v>52.86485212540332</v>
       </c>
       <c r="H43">
-        <v>16.30470613837211</v>
+        <v>5.098999571085471</v>
       </c>
       <c r="I43">
-        <v>946.6506392021472</v>
+        <v>296.047727710931</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1650,28 +1650,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>535.3579075114334</v>
+        <v>167.4234247223643</v>
       </c>
       <c r="C44">
-        <v>7.828567595228021</v>
+        <v>2.448241781943992</v>
       </c>
       <c r="D44">
-        <v>138.8614747794436</v>
+        <v>43.4263944613093</v>
       </c>
       <c r="E44">
-        <v>242.6319961968865</v>
+        <v>75.87873305044781</v>
       </c>
       <c r="F44">
-        <v>115.1471861523797</v>
+        <v>36.01018306125101</v>
       </c>
       <c r="G44">
-        <v>233.3257922510842</v>
+        <v>72.96838744069751</v>
       </c>
       <c r="H44">
-        <v>24.45705920755817</v>
+        <v>7.648499356628204</v>
       </c>
       <c r="I44">
-        <v>1297.609983694014</v>
+        <v>405.8038638746421</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1679,28 +1679,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>605.4643001617403</v>
+        <v>189.3479208169596</v>
       </c>
       <c r="C45">
-        <v>22.83332215274839</v>
+        <v>7.140705197336644</v>
       </c>
       <c r="D45">
-        <v>168.7701001165545</v>
+        <v>52.779771729899</v>
       </c>
       <c r="E45">
-        <v>173.3085687120617</v>
+        <v>54.19909503603415</v>
       </c>
       <c r="F45">
-        <v>129.9857410689235</v>
+        <v>40.65067056914419</v>
       </c>
       <c r="G45">
-        <v>254.7536711312858</v>
+        <v>79.6695658791289</v>
       </c>
       <c r="H45">
-        <v>19.79857173945185</v>
+        <v>6.191642336318069</v>
       </c>
       <c r="I45">
-        <v>1374.914275082766</v>
+        <v>429.9793715648206</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1708,28 +1708,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>484.8435370495964</v>
+        <v>151.6259763579083</v>
       </c>
       <c r="C46">
-        <v>28.05236721623374</v>
+        <v>8.772866385299304</v>
       </c>
       <c r="D46">
-        <v>196.5423950724433</v>
+        <v>61.46505062216087</v>
       </c>
       <c r="E46">
-        <v>121.3159980984432</v>
+        <v>37.9393665252239</v>
       </c>
       <c r="F46">
-        <v>157.2886821153641</v>
+        <v>49.18916758366761</v>
       </c>
       <c r="G46">
-        <v>388.0826952747624</v>
+        <v>121.3657872738132</v>
       </c>
       <c r="H46">
-        <v>19.79857173945185</v>
+        <v>6.191642336318069</v>
       </c>
       <c r="I46">
-        <v>1395.924246566295</v>
+        <v>436.5498570843913</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1737,28 +1737,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>366.1111616182688</v>
+        <v>114.49459071622</v>
       </c>
       <c r="C47">
-        <v>31.31427038091208</v>
+        <v>9.792967127775968</v>
       </c>
       <c r="D47">
-        <v>145.2704659231102</v>
+        <v>45.43068959029282</v>
       </c>
       <c r="E47">
-        <v>80.15521302932856</v>
+        <v>25.06708145416578</v>
       </c>
       <c r="F47">
-        <v>167.9724416552756</v>
+        <v>52.53031858935071</v>
       </c>
       <c r="G47">
-        <v>295.2285534605555</v>
+        <v>92.32734737394381</v>
       </c>
       <c r="H47">
-        <v>15.14008427134554</v>
+        <v>4.734785316007936</v>
       </c>
       <c r="I47">
-        <v>1101.192190338797</v>
+        <v>344.3777801677571</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1766,28 +1766,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>377.6775361632689</v>
+        <v>118.1117634725673</v>
       </c>
       <c r="C48">
-        <v>18.91903835513439</v>
+        <v>5.916584306364648</v>
       </c>
       <c r="D48">
-        <v>158.0884482104435</v>
+        <v>49.43927984825984</v>
       </c>
       <c r="E48">
-        <v>88.82064146493164</v>
+        <v>27.77703620596749</v>
       </c>
       <c r="F48">
-        <v>171.5336948352461</v>
+        <v>53.64403559124506</v>
       </c>
       <c r="G48">
-        <v>423.7958267417653</v>
+        <v>132.5344180045322</v>
       </c>
       <c r="H48">
-        <v>12.81084053729238</v>
+        <v>4.006356805852868</v>
       </c>
       <c r="I48">
-        <v>1251.646026308082</v>
+        <v>391.4294742347894</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1795,28 +1795,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>389.7160076284729</v>
+        <v>121.8765759332555</v>
       </c>
       <c r="C49">
-        <v>26.74760595036242</v>
+        <v>8.364826088308639</v>
       </c>
       <c r="D49">
-        <v>121.7708317296659</v>
+        <v>38.08160745068661</v>
       </c>
       <c r="E49">
-        <v>95.31971279163395</v>
+        <v>29.80950226981877</v>
       </c>
       <c r="F49">
-        <v>109.2117641857622</v>
+        <v>34.15398805809374</v>
       </c>
       <c r="G49">
-        <v>257.1345465624192</v>
+        <v>80.41414126117685</v>
       </c>
       <c r="H49">
-        <v>15.14008427134554</v>
+        <v>4.734785316007936</v>
       </c>
       <c r="I49">
-        <v>1015.040553119662</v>
+        <v>317.4354263773481</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>129.9229398198241</v>
+        <v>415.4452897795954</v>
       </c>
       <c r="C2">
-        <v>9.792967127775968</v>
+        <v>31.31427038091208</v>
       </c>
       <c r="D2">
-        <v>46.76688634294847</v>
+        <v>149.5431266855546</v>
       </c>
       <c r="E2">
-        <v>21.00214932646323</v>
+        <v>67.15707037592391</v>
       </c>
       <c r="F2">
-        <v>42.87810457293291</v>
+        <v>137.1082474288645</v>
       </c>
       <c r="G2">
-        <v>72.22381205864959</v>
+        <v>230.9449168199506</v>
       </c>
       <c r="H2">
-        <v>6.191642336318069</v>
+        <v>19.79857173945185</v>
       </c>
       <c r="I2">
-        <v>328.7785015849124</v>
+        <v>1051.311493210253</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>128.4465427764171</v>
+        <v>410.724320577555</v>
       </c>
       <c r="C3">
-        <v>10.40502757326197</v>
+        <v>33.27141227971909</v>
       </c>
       <c r="D3">
-        <v>53.44787010622684</v>
+        <v>170.9064304977767</v>
       </c>
       <c r="E3">
-        <v>20.3246606385128</v>
+        <v>64.99071326702315</v>
       </c>
       <c r="F3">
-        <v>43.24934357356436</v>
+        <v>138.295331822188</v>
       </c>
       <c r="G3">
-        <v>81.15871664322478</v>
+        <v>259.5154219935528</v>
       </c>
       <c r="H3">
-        <v>6.555856591395603</v>
+        <v>20.96319360647843</v>
       </c>
       <c r="I3">
-        <v>343.5880179026034</v>
+        <v>1098.666824044293</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>145.2036492190874</v>
+        <v>464.3073210207187</v>
       </c>
       <c r="C4">
-        <v>10.6090477217573</v>
+        <v>33.92379291265476</v>
       </c>
       <c r="D4">
-        <v>58.12455874052168</v>
+        <v>185.8607431663322</v>
       </c>
       <c r="E4">
-        <v>23.71210407826494</v>
+        <v>75.82249881152701</v>
       </c>
       <c r="F4">
-        <v>51.04536258682489</v>
+        <v>163.2241040819816</v>
       </c>
       <c r="G4">
-        <v>61.79975670997852</v>
+        <v>197.6126607840816</v>
       </c>
       <c r="H4">
-        <v>3.642142550775335</v>
+        <v>11.64621867026579</v>
       </c>
       <c r="I4">
-        <v>354.1366216072101</v>
+        <v>1132.397339447562</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>156.7195461576628</v>
+        <v>501.1308807966374</v>
       </c>
       <c r="C5">
-        <v>6.732664900345979</v>
+        <v>21.52856088687707</v>
       </c>
       <c r="D5">
-        <v>59.46075549317734</v>
+        <v>190.1334039287767</v>
       </c>
       <c r="E5">
-        <v>25.06708145416578</v>
+        <v>80.15521302932856</v>
       </c>
       <c r="F5">
-        <v>44.36306057545872</v>
+        <v>141.8565850021585</v>
       </c>
       <c r="G5">
-        <v>41.69622139468431</v>
+        <v>133.3290241434767</v>
       </c>
       <c r="H5">
-        <v>2.549499785542735</v>
+        <v>8.152353069186056</v>
       </c>
       <c r="I5">
-        <v>336.5888297610376</v>
+        <v>1076.286020856441</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>190.3075788951742</v>
+        <v>608.5329301430671</v>
       </c>
       <c r="C6">
-        <v>9.996987276271302</v>
+        <v>31.96665101384777</v>
       </c>
       <c r="D6">
-        <v>42.09019770865364</v>
+        <v>134.5888140169992</v>
       </c>
       <c r="E6">
-        <v>46.74671946857943</v>
+        <v>149.4786405141532</v>
       </c>
       <c r="F6">
-        <v>31.74093455398929</v>
+        <v>101.4957156291594</v>
       </c>
       <c r="G6">
-        <v>23.08183684348595</v>
+        <v>73.80713836513888</v>
       </c>
       <c r="H6">
-        <v>7.648499356628204</v>
+        <v>24.45705920755817</v>
       </c>
       <c r="I6">
-        <v>351.612754102782</v>
+        <v>1124.326948889924</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>190.0122994864928</v>
+        <v>607.5887363026588</v>
       </c>
       <c r="C7">
-        <v>5.508544009373982</v>
+        <v>17.61427708926305</v>
       </c>
       <c r="D7">
-        <v>30.0644269347526</v>
+        <v>96.13486715499941</v>
       </c>
       <c r="E7">
-        <v>51.48914028423241</v>
+        <v>164.6431402764586</v>
       </c>
       <c r="F7">
-        <v>18.19071103094123</v>
+        <v>58.16713527285161</v>
       </c>
       <c r="G7">
-        <v>11.16863073071901</v>
+        <v>35.71313146700268</v>
       </c>
       <c r="H7">
-        <v>4.370571060930402</v>
+        <v>13.97546240431896</v>
       </c>
       <c r="I7">
-        <v>310.8043235374425</v>
+        <v>993.8367499675531</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>132.7280942022976</v>
+        <v>424.4151312634735</v>
       </c>
       <c r="C8">
-        <v>5.712564157869314</v>
+        <v>18.26665772219872</v>
       </c>
       <c r="D8">
-        <v>26.05583667678559</v>
+        <v>83.31688486766616</v>
       </c>
       <c r="E8">
-        <v>33.1969457095709</v>
+        <v>106.1514983361378</v>
       </c>
       <c r="F8">
-        <v>13.92146252367952</v>
+        <v>44.51566474963134</v>
       </c>
       <c r="G8">
-        <v>13.40235687686281</v>
+        <v>42.85575776040322</v>
       </c>
       <c r="H8">
-        <v>0.3642142550775334</v>
+        <v>1.164621867026579</v>
       </c>
       <c r="I8">
-        <v>225.3814744021433</v>
+        <v>720.6862165665373</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>108.3675429860806</v>
+        <v>346.5191394297989</v>
       </c>
       <c r="C9">
-        <v>5.100503712383317</v>
+        <v>16.30951582339171</v>
       </c>
       <c r="D9">
-        <v>18.70675453717939</v>
+        <v>59.81725067422186</v>
       </c>
       <c r="E9">
-        <v>49.45667422038115</v>
+        <v>158.1440689497563</v>
       </c>
       <c r="F9">
-        <v>7.981638513576256</v>
+        <v>25.5223144564553</v>
       </c>
       <c r="G9">
-        <v>7.445753820479341</v>
+        <v>23.80875431133512</v>
       </c>
       <c r="H9">
-        <v>1.092642765232601</v>
+        <v>3.493865601079739</v>
       </c>
       <c r="I9">
-        <v>198.1515105553127</v>
+        <v>633.6149092460389</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>80.16835945700514</v>
+        <v>256.3486276708187</v>
       </c>
       <c r="C10">
-        <v>3.672362672915988</v>
+        <v>11.74285139284203</v>
       </c>
       <c r="D10">
-        <v>14.69816427921237</v>
+        <v>46.99926838688859</v>
       </c>
       <c r="E10">
-        <v>32.51945702162049</v>
+        <v>103.985141227237</v>
       </c>
       <c r="F10">
-        <v>7.239160512313349</v>
+        <v>23.1481456698083</v>
       </c>
       <c r="G10">
-        <v>7.445753820479341</v>
+        <v>23.80875431133512</v>
       </c>
       <c r="H10">
-        <v>1.456857020310134</v>
+        <v>4.658487468106317</v>
       </c>
       <c r="I10">
-        <v>147.2001147838569</v>
+        <v>470.6912761270361</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>61.49193685790539</v>
+        <v>196.6283672650017</v>
       </c>
       <c r="C11">
-        <v>5.916584306364648</v>
+        <v>18.91903835513439</v>
       </c>
       <c r="D11">
-        <v>14.69816427921237</v>
+        <v>46.99926838688859</v>
       </c>
       <c r="E11">
-        <v>14.90475113490939</v>
+        <v>47.65985639581697</v>
       </c>
       <c r="F11">
-        <v>7.424780012629076</v>
+        <v>23.74168786647004</v>
       </c>
       <c r="G11">
-        <v>11.16863073071901</v>
+        <v>35.71313146700268</v>
       </c>
       <c r="H11">
-        <v>1.092642765232601</v>
+        <v>3.493865601079739</v>
       </c>
       <c r="I11">
-        <v>116.6974900869725</v>
+        <v>373.1552153373941</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>37.86958416339186</v>
+        <v>121.092860032348</v>
       </c>
       <c r="C12">
-        <v>5.508544009373982</v>
+        <v>17.61427708926305</v>
       </c>
       <c r="D12">
-        <v>3.340491881639178</v>
+        <v>10.68165190611104</v>
       </c>
       <c r="E12">
-        <v>5.419909503603412</v>
+        <v>17.33085687120617</v>
       </c>
       <c r="F12">
-        <v>4.454868007577444</v>
+        <v>14.24501271988203</v>
       </c>
       <c r="G12">
-        <v>11.91320611276694</v>
+        <v>38.09400689813619</v>
       </c>
       <c r="I12">
-        <v>68.50660367835282</v>
+        <v>219.0586655169465</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>23.62235269451349</v>
+        <v>75.53550723265376</v>
       </c>
       <c r="C13">
-        <v>6.732664900345979</v>
+        <v>21.52856088687707</v>
       </c>
       <c r="D13">
-        <v>2.672393505311342</v>
+        <v>8.545321524888836</v>
       </c>
       <c r="E13">
-        <v>2.709954751801706</v>
+        <v>8.665428435603085</v>
       </c>
       <c r="F13">
-        <v>5.939824010103259</v>
+        <v>18.99335029317604</v>
       </c>
       <c r="G13">
-        <v>11.16863073071901</v>
+        <v>35.71313146700268</v>
       </c>
       <c r="H13">
-        <v>0.3642142550775334</v>
+        <v>1.164621867026579</v>
       </c>
       <c r="I13">
-        <v>53.21003484787231</v>
+        <v>170.145921707228</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>14.83779028624128</v>
+        <v>47.44574048051063</v>
       </c>
       <c r="C14">
-        <v>5.508544009373982</v>
+        <v>17.61427708926305</v>
       </c>
       <c r="D14">
-        <v>2.672393505311342</v>
+        <v>8.545321524888836</v>
       </c>
       <c r="E14">
-        <v>2.032466063851281</v>
+        <v>6.499071326702314</v>
       </c>
       <c r="F14">
-        <v>5.011726508524626</v>
+        <v>16.02563930986728</v>
       </c>
       <c r="G14">
-        <v>23.82641222553388</v>
+        <v>76.18801379627237</v>
       </c>
       <c r="H14">
-        <v>0.3642142550775334</v>
+        <v>1.164621867026579</v>
       </c>
       <c r="I14">
-        <v>54.25354685391392</v>
+        <v>173.482685394531</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,25 +812,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>10.99915797338284</v>
+        <v>35.17122055520441</v>
       </c>
       <c r="C15">
-        <v>3.468342524420656</v>
+        <v>11.09047075990636</v>
       </c>
       <c r="D15">
-        <v>2.004295128983506</v>
+        <v>6.408991143666627</v>
       </c>
       <c r="F15">
-        <v>3.341151005683084</v>
+        <v>10.68375953991152</v>
       </c>
       <c r="G15">
-        <v>18.61438455119834</v>
+        <v>59.52188577833782</v>
       </c>
       <c r="H15">
-        <v>0.7284285101550668</v>
+        <v>2.329243734053159</v>
       </c>
       <c r="I15">
-        <v>39.1557596938235</v>
+        <v>125.2055715110799</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,28 +838,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>11.58971679074568</v>
+        <v>37.05960823602075</v>
       </c>
       <c r="C16">
-        <v>1.836181336457994</v>
+        <v>5.871425696421017</v>
       </c>
       <c r="D16">
-        <v>6.680983763278356</v>
+        <v>21.36330381222208</v>
       </c>
       <c r="E16">
-        <v>3.387443439752134</v>
+        <v>10.83178554450386</v>
       </c>
       <c r="F16">
-        <v>3.898009506630264</v>
+        <v>12.46438612989678</v>
       </c>
       <c r="G16">
-        <v>21.59268607939009</v>
+        <v>69.04538750287185</v>
       </c>
       <c r="H16">
-        <v>0.3642142550775334</v>
+        <v>1.164621867026579</v>
       </c>
       <c r="I16">
-        <v>49.34923517133205</v>
+        <v>157.8005187889629</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,28 +867,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>26.50132692915731</v>
+        <v>84.74139717663344</v>
       </c>
       <c r="C17">
-        <v>1.836181336457994</v>
+        <v>5.871425696421017</v>
       </c>
       <c r="D17">
-        <v>6.680983763278356</v>
+        <v>21.36330381222208</v>
       </c>
       <c r="E17">
-        <v>2.032466063851281</v>
+        <v>6.499071326702314</v>
       </c>
       <c r="F17">
-        <v>7.053541011997622</v>
+        <v>22.55460347314655</v>
       </c>
       <c r="G17">
-        <v>29.03843989986943</v>
+        <v>92.85414181420695</v>
       </c>
       <c r="H17">
-        <v>0.7284285101550668</v>
+        <v>2.329243734053159</v>
       </c>
       <c r="I17">
-        <v>73.87136751476706</v>
+        <v>236.2131870333855</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -896,28 +896,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>56.54600676249162</v>
+        <v>180.813120438165</v>
       </c>
       <c r="C18">
-        <v>3.06030222742999</v>
+        <v>9.78570949403503</v>
       </c>
       <c r="D18">
-        <v>14.03006590288455</v>
+        <v>44.86293800566639</v>
       </c>
       <c r="E18">
-        <v>23.03461539031451</v>
+        <v>73.65614170262623</v>
       </c>
       <c r="F18">
-        <v>16.33451602778396</v>
+        <v>52.23171330623411</v>
       </c>
       <c r="G18">
-        <v>37.97334448444462</v>
+        <v>121.4246469878091</v>
       </c>
       <c r="H18">
-        <v>2.185285530465201</v>
+        <v>6.987731202159478</v>
       </c>
       <c r="I18">
-        <v>153.1641363258144</v>
+        <v>489.7620011366954</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,28 +925,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>98.62332249959375</v>
+        <v>315.3607426963296</v>
       </c>
       <c r="C19">
-        <v>3.672362672915988</v>
+        <v>11.74285139284203</v>
       </c>
       <c r="D19">
-        <v>36.74541069803095</v>
+        <v>117.4981709672215</v>
       </c>
       <c r="E19">
-        <v>63.00644797938967</v>
+        <v>201.4712111277718</v>
       </c>
       <c r="F19">
-        <v>30.07035905114775</v>
+        <v>96.15383585920371</v>
       </c>
       <c r="G19">
-        <v>53.60942750745124</v>
+        <v>171.4230310416129</v>
       </c>
       <c r="H19">
-        <v>3.642142550775335</v>
+        <v>11.64621867026579</v>
       </c>
       <c r="I19">
-        <v>289.3694729593047</v>
+        <v>925.2960617552473</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>167.9401636875567</v>
+        <v>537.0102467321477</v>
       </c>
       <c r="C20">
-        <v>4.080402969906654</v>
+        <v>13.04761265871337</v>
       </c>
       <c r="D20">
-        <v>45.43068959029282</v>
+        <v>145.2704659231102</v>
       </c>
       <c r="E20">
-        <v>61.65147060348882</v>
+        <v>197.1384969099702</v>
       </c>
       <c r="F20">
-        <v>34.15398805809374</v>
+        <v>109.2117641857622</v>
       </c>
       <c r="G20">
-        <v>73.71296282274547</v>
+        <v>235.7066676822177</v>
       </c>
       <c r="H20">
-        <v>7.284285101550671</v>
+        <v>23.29243734053159</v>
       </c>
       <c r="I20">
-        <v>394.2539628336348</v>
+        <v>1260.677691432453</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>177.0200055045102</v>
+        <v>566.0442073246992</v>
       </c>
       <c r="C21">
-        <v>6.120604454859979</v>
+        <v>19.57141898807006</v>
       </c>
       <c r="D21">
-        <v>36.07731232170312</v>
+        <v>115.3618405859993</v>
       </c>
       <c r="E21">
-        <v>42.68178734087688</v>
+        <v>136.4804978607486</v>
       </c>
       <c r="F21">
-        <v>29.51350055020058</v>
+        <v>94.37320926921842</v>
       </c>
       <c r="G21">
-        <v>60.31060594588266</v>
+        <v>192.8509099218145</v>
       </c>
       <c r="H21">
-        <v>5.098999571085471</v>
+        <v>16.30470613837211</v>
       </c>
       <c r="I21">
-        <v>356.822815689119</v>
+        <v>1140.986790088922</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>142.398494836614</v>
+        <v>455.3374795368409</v>
       </c>
       <c r="C22">
-        <v>8.772866385299304</v>
+        <v>28.05236721623374</v>
       </c>
       <c r="D22">
-        <v>62.80124737481653</v>
+        <v>200.8150558348877</v>
       </c>
       <c r="E22">
-        <v>33.1969457095709</v>
+        <v>106.1514983361378</v>
       </c>
       <c r="F22">
-        <v>49.56040658429907</v>
+        <v>158.4757665086876</v>
       </c>
       <c r="G22">
-        <v>106.4742796328545</v>
+        <v>340.4651866520923</v>
       </c>
       <c r="H22">
-        <v>6.191642336318069</v>
+        <v>19.79857173945185</v>
       </c>
       <c r="I22">
-        <v>409.3958828597724</v>
+        <v>1309.095925824332</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>111.8370760380873</v>
+        <v>357.6134170545952</v>
       </c>
       <c r="C23">
-        <v>8.772866385299304</v>
+        <v>28.05236721623374</v>
       </c>
       <c r="D23">
-        <v>50.7754766009155</v>
+        <v>162.3611089728879</v>
       </c>
       <c r="E23">
-        <v>20.3246606385128</v>
+        <v>64.99071326702315</v>
       </c>
       <c r="F23">
-        <v>48.81792858303617</v>
+        <v>156.1015977220406</v>
       </c>
       <c r="G23">
-        <v>103.4959781046628</v>
+        <v>330.9416849275582</v>
       </c>
       <c r="H23">
-        <v>3.642142550775335</v>
+        <v>11.64621867026579</v>
       </c>
       <c r="I23">
-        <v>347.6661289012893</v>
+        <v>1111.707107830605</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>127.0439655851803</v>
+        <v>406.239399835616</v>
       </c>
       <c r="C24">
-        <v>8.976886533794637</v>
+        <v>28.70474784916942</v>
       </c>
       <c r="D24">
-        <v>52.779771729899</v>
+        <v>168.7701001165545</v>
       </c>
       <c r="E24">
-        <v>31.16447964571962</v>
+        <v>99.65242700943551</v>
       </c>
       <c r="F24">
-        <v>50.67412358619344</v>
+        <v>162.0370196886581</v>
       </c>
       <c r="G24">
-        <v>91.58277199189588</v>
+        <v>292.847678029422</v>
       </c>
       <c r="H24">
-        <v>7.648499356628204</v>
+        <v>24.45705920755817</v>
       </c>
       <c r="I24">
-        <v>369.8704984293111</v>
+        <v>1182.708431736414</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>121.8765759332555</v>
+        <v>389.7160076284729</v>
       </c>
       <c r="C25">
-        <v>8.364826088308639</v>
+        <v>26.74760595036242</v>
       </c>
       <c r="D25">
-        <v>38.08160745068661</v>
+        <v>121.7708317296659</v>
       </c>
       <c r="E25">
-        <v>29.80950226981877</v>
+        <v>95.31971279163395</v>
       </c>
       <c r="F25">
-        <v>34.15398805809374</v>
+        <v>109.2117641857622</v>
       </c>
       <c r="G25">
-        <v>80.41414126117685</v>
+        <v>257.1345465624192</v>
       </c>
       <c r="H25">
-        <v>4.734785316007936</v>
+        <v>15.14008427134554</v>
       </c>
       <c r="I25">
-        <v>317.4354263773481</v>
+        <v>1015.040553119662</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>122.614774454959</v>
+        <v>392.0764922294935</v>
       </c>
       <c r="C26">
-        <v>7.344725345831977</v>
+        <v>23.48570278568407</v>
       </c>
       <c r="D26">
-        <v>36.07731232170312</v>
+        <v>115.3618405859993</v>
       </c>
       <c r="E26">
-        <v>21.00214932646323</v>
+        <v>67.15707037592391</v>
       </c>
       <c r="F26">
-        <v>43.43496307388008</v>
+        <v>138.8888740188498</v>
       </c>
       <c r="G26">
-        <v>84.13701817141651</v>
+        <v>269.0389237180868</v>
       </c>
       <c r="H26">
-        <v>7.648499356628204</v>
+        <v>24.45705920755817</v>
       </c>
       <c r="I26">
-        <v>322.2594420508821</v>
+        <v>1030.465962921596</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>132.2113552371051</v>
+        <v>422.7627920427588</v>
       </c>
       <c r="C27">
-        <v>7.956785791317975</v>
+        <v>25.44284468449106</v>
       </c>
       <c r="D27">
-        <v>57.45646036419385</v>
+        <v>183.72441278511</v>
       </c>
       <c r="E27">
-        <v>30.48699095776919</v>
+        <v>97.48606990053474</v>
       </c>
       <c r="F27">
-        <v>41.95000707135428</v>
+        <v>134.1405364455558</v>
       </c>
       <c r="G27">
-        <v>65.5226336202182</v>
+        <v>209.517037939749</v>
       </c>
       <c r="H27">
-        <v>5.463213826163003</v>
+        <v>17.46932800539869</v>
       </c>
       <c r="I27">
-        <v>341.0474468681215</v>
+        <v>1090.543021803598</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>135.8285279934525</v>
+        <v>434.3291665877592</v>
       </c>
       <c r="C28">
-        <v>6.936685048841311</v>
+        <v>22.18094151981273</v>
       </c>
       <c r="D28">
-        <v>59.46075549317734</v>
+        <v>190.1334039287767</v>
       </c>
       <c r="E28">
-        <v>24.38959276621537</v>
+        <v>77.9888559204278</v>
       </c>
       <c r="F28">
-        <v>41.02190956977564</v>
+        <v>131.172825462247</v>
       </c>
       <c r="G28">
-        <v>77.4358397329851</v>
+        <v>247.6110448378853</v>
       </c>
       <c r="H28">
-        <v>5.463213826163003</v>
+        <v>17.46932800539869</v>
       </c>
       <c r="I28">
-        <v>350.5365244306102</v>
+        <v>1120.885566262307</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>156.7933660098332</v>
+        <v>501.3669292567394</v>
       </c>
       <c r="C29">
-        <v>6.732664900345979</v>
+        <v>21.52856088687707</v>
       </c>
       <c r="D29">
-        <v>44.76259121396497</v>
+        <v>143.134135541888</v>
       </c>
       <c r="E29">
-        <v>33.1969457095709</v>
+        <v>106.1514983361378</v>
       </c>
       <c r="F29">
-        <v>38.42323656535547</v>
+        <v>122.8632347089825</v>
       </c>
       <c r="G29">
-        <v>52.86485212540332</v>
+        <v>169.0421556104793</v>
       </c>
       <c r="H29">
-        <v>6.920070846473137</v>
+        <v>22.12781547350501</v>
       </c>
       <c r="I29">
-        <v>339.693727370947</v>
+        <v>1086.214329814609</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>187.4286046605303</v>
+        <v>599.3270401990872</v>
       </c>
       <c r="C30">
-        <v>5.712564157869314</v>
+        <v>18.26665772219872</v>
       </c>
       <c r="D30">
-        <v>46.09878796662065</v>
+        <v>147.4067963043325</v>
       </c>
       <c r="E30">
-        <v>46.74671946857943</v>
+        <v>149.4786405141532</v>
       </c>
       <c r="F30">
-        <v>33.2258905565151</v>
+        <v>106.2440532024535</v>
       </c>
       <c r="G30">
-        <v>32.01674142806115</v>
+        <v>102.377643538741</v>
       </c>
       <c r="H30">
-        <v>4.370571060930402</v>
+        <v>13.97546240431896</v>
       </c>
       <c r="I30">
-        <v>355.5998792991062</v>
+        <v>1137.076293885285</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>195.8440678079508</v>
+        <v>626.2365646507201</v>
       </c>
       <c r="C31">
-        <v>6.936685048841311</v>
+        <v>22.18094151981273</v>
       </c>
       <c r="D31">
-        <v>38.08160745068661</v>
+        <v>121.7708317296659</v>
       </c>
       <c r="E31">
-        <v>54.19909503603415</v>
+        <v>173.3085687120617</v>
       </c>
       <c r="F31">
-        <v>23.94491554072877</v>
+        <v>76.56694336936589</v>
       </c>
       <c r="G31">
-        <v>14.89150764095868</v>
+        <v>47.61750862267024</v>
       </c>
       <c r="H31">
-        <v>0.7284285101550668</v>
+        <v>2.329243734053159</v>
       </c>
       <c r="I31">
-        <v>334.6263070353554</v>
+        <v>1070.01060233835</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>147.5658844885388</v>
+        <v>471.8608717439837</v>
       </c>
       <c r="C32">
-        <v>3.672362672915988</v>
+        <v>11.74285139284203</v>
       </c>
       <c r="D32">
-        <v>26.05583667678559</v>
+        <v>83.31688486766616</v>
       </c>
       <c r="E32">
-        <v>37.9393665252239</v>
+        <v>121.3159980984432</v>
       </c>
       <c r="F32">
-        <v>13.92146252367952</v>
+        <v>44.51566474963134</v>
       </c>
       <c r="G32">
-        <v>19.35895993324628</v>
+        <v>61.90276120947131</v>
       </c>
       <c r="H32">
-        <v>1.821071275387668</v>
+        <v>5.823109335132897</v>
       </c>
       <c r="I32">
-        <v>250.3349440957778</v>
+        <v>800.4781413971708</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>114.8636899770718</v>
+        <v>367.2914039187791</v>
       </c>
       <c r="C33">
-        <v>6.528644751850646</v>
+        <v>20.87618025394139</v>
       </c>
       <c r="D33">
-        <v>27.39203342944126</v>
+        <v>87.58954563011058</v>
       </c>
       <c r="E33">
-        <v>49.45667422038115</v>
+        <v>158.1440689497563</v>
       </c>
       <c r="F33">
-        <v>12.06526752052225</v>
+        <v>38.58024278301382</v>
       </c>
       <c r="G33">
-        <v>11.16863073071901</v>
+        <v>35.71313146700268</v>
       </c>
       <c r="H33">
-        <v>1.092642765232601</v>
+        <v>3.493865601079739</v>
       </c>
       <c r="I33">
-        <v>222.5675833952187</v>
+        <v>711.6884386036836</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>92.42245491728396</v>
+        <v>295.5326720477577</v>
       </c>
       <c r="C34">
-        <v>4.488443266897319</v>
+        <v>14.35237392458471</v>
       </c>
       <c r="D34">
-        <v>22.04724641881856</v>
+        <v>70.4989025803329</v>
       </c>
       <c r="E34">
-        <v>31.84196833367005</v>
+        <v>101.8187841183362</v>
       </c>
       <c r="F34">
-        <v>6.867921511681895</v>
+        <v>21.96106127648479</v>
       </c>
       <c r="G34">
-        <v>10.42405534867108</v>
+        <v>33.33225603586916</v>
       </c>
       <c r="H34">
-        <v>0.7284285101550668</v>
+        <v>2.329243734053159</v>
       </c>
       <c r="I34">
-        <v>168.8205183071779</v>
+        <v>539.8252937174186</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>65.77348828378595</v>
+        <v>210.3191779509203</v>
       </c>
       <c r="C35">
-        <v>6.120604454859979</v>
+        <v>19.57141898807006</v>
       </c>
       <c r="D35">
-        <v>16.70245940819589</v>
+        <v>53.40825953055525</v>
       </c>
       <c r="E35">
-        <v>18.96968326261195</v>
+        <v>60.65799904922162</v>
       </c>
       <c r="F35">
-        <v>5.939824010103259</v>
+        <v>18.99335029317604</v>
       </c>
       <c r="G35">
-        <v>11.16863073071901</v>
+        <v>35.71313146700268</v>
       </c>
       <c r="H35">
-        <v>1.092642765232601</v>
+        <v>3.493865601079739</v>
       </c>
       <c r="I35">
-        <v>125.7673329155086</v>
+        <v>402.1572028800257</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>39.27216135462862</v>
+        <v>125.5777807742869</v>
       </c>
       <c r="C36">
-        <v>7.956785791317975</v>
+        <v>25.44284468449106</v>
       </c>
       <c r="D36">
-        <v>6.012885386950519</v>
+        <v>19.22697343099988</v>
       </c>
       <c r="E36">
-        <v>11.51730769515726</v>
+        <v>36.82807085131311</v>
       </c>
       <c r="F36">
-        <v>5.568585009471805</v>
+        <v>17.80626589985254</v>
       </c>
       <c r="G36">
-        <v>8.190329202527275</v>
+        <v>26.18962974246863</v>
       </c>
       <c r="H36">
-        <v>0.3642142550775334</v>
+        <v>1.164621867026579</v>
       </c>
       <c r="I36">
-        <v>78.88226869513099</v>
+        <v>252.2361872504387</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>31.44725702457106</v>
+        <v>100.5566440034704</v>
       </c>
       <c r="C37">
-        <v>5.916584306364648</v>
+        <v>18.91903835513439</v>
       </c>
       <c r="D37">
-        <v>5.344787010622683</v>
+        <v>17.09064304977767</v>
       </c>
       <c r="E37">
-        <v>7.452375567454693</v>
+        <v>23.82992819790849</v>
       </c>
       <c r="F37">
-        <v>5.197346008840352</v>
+        <v>16.61918150652903</v>
       </c>
       <c r="G37">
-        <v>9.679479966623138</v>
+        <v>30.95138060473566</v>
       </c>
       <c r="H37">
-        <v>1.821071275387668</v>
+        <v>5.823109335132897</v>
       </c>
       <c r="I37">
-        <v>66.85890115986423</v>
+        <v>213.7899250526885</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>16.53564688615943</v>
+        <v>52.87485506285763</v>
       </c>
       <c r="C38">
-        <v>6.936685048841311</v>
+        <v>22.18094151981273</v>
       </c>
       <c r="D38">
-        <v>4.008590257967013</v>
+        <v>12.81798228733325</v>
       </c>
       <c r="E38">
-        <v>1.354977375900853</v>
+        <v>4.332714217801542</v>
       </c>
       <c r="F38">
-        <v>4.826107008208899</v>
+        <v>15.43209711320553</v>
       </c>
       <c r="G38">
-        <v>16.38065840505455</v>
+        <v>52.37925948493726</v>
       </c>
       <c r="H38">
-        <v>0.3642142550775334</v>
+        <v>1.164621867026579</v>
       </c>
       <c r="I38">
-        <v>50.40687923720959</v>
+        <v>161.1824715529745</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>10.92533812121248</v>
+        <v>34.93517209510237</v>
       </c>
       <c r="C39">
-        <v>3.876382821411322</v>
+        <v>12.3952320257777</v>
       </c>
       <c r="D39">
-        <v>4.008590257967013</v>
+        <v>12.81798228733325</v>
       </c>
       <c r="E39">
-        <v>1.354977375900853</v>
+        <v>4.332714217801542</v>
       </c>
       <c r="F39">
-        <v>2.96991200505163</v>
+        <v>9.496675146588018</v>
       </c>
       <c r="G39">
-        <v>11.16863073071901</v>
+        <v>35.71313146700268</v>
       </c>
       <c r="H39">
-        <v>0.3642142550775334</v>
+        <v>1.164621867026579</v>
       </c>
       <c r="I39">
-        <v>34.66804556733984</v>
+        <v>110.8555291066321</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>10.92533812121248</v>
+        <v>34.93517209510237</v>
       </c>
       <c r="C40">
-        <v>2.448241781943992</v>
+        <v>7.828567595228021</v>
       </c>
       <c r="D40">
-        <v>4.676688634294848</v>
+        <v>14.95431266855547</v>
       </c>
       <c r="E40">
-        <v>4.064932127702561</v>
+        <v>12.99814265340463</v>
       </c>
       <c r="F40">
-        <v>5.011726508524626</v>
+        <v>16.02563930986728</v>
       </c>
       <c r="G40">
-        <v>17.86980916915041</v>
+        <v>57.14101034720428</v>
       </c>
       <c r="H40">
-        <v>0.3642142550775334</v>
+        <v>1.164621867026579</v>
       </c>
       <c r="I40">
-        <v>45.36095059790646</v>
+        <v>145.0474665363886</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,28 +1563,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>25.17256959009093</v>
+        <v>80.49252489479662</v>
       </c>
       <c r="C41">
-        <v>2.040201484953327</v>
+        <v>6.523806329356687</v>
       </c>
       <c r="D41">
-        <v>11.35767239757321</v>
+        <v>36.31761648077755</v>
       </c>
       <c r="E41">
-        <v>4.064932127702561</v>
+        <v>12.99814265340463</v>
       </c>
       <c r="F41">
-        <v>7.796019013260529</v>
+        <v>24.92877225979355</v>
       </c>
       <c r="G41">
-        <v>34.25046757420497</v>
+        <v>109.5202698321416</v>
       </c>
       <c r="H41">
-        <v>0.7284285101550668</v>
+        <v>2.329243734053159</v>
       </c>
       <c r="I41">
-        <v>85.41029069794058</v>
+        <v>273.1103761843238</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1592,28 +1592,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>53.44557297133676</v>
+        <v>170.8990851138791</v>
       </c>
       <c r="C42">
-        <v>0.612060445485998</v>
+        <v>1.957141898807005</v>
       </c>
       <c r="D42">
-        <v>15.36626265554022</v>
+        <v>49.13559876811082</v>
       </c>
       <c r="E42">
-        <v>27.09954751801708</v>
+        <v>86.65428435603086</v>
       </c>
       <c r="F42">
-        <v>15.59203802652106</v>
+        <v>49.8575445195871</v>
       </c>
       <c r="G42">
-        <v>37.97334448444462</v>
+        <v>121.4246469878091</v>
       </c>
       <c r="H42">
-        <v>1.456857020310134</v>
+        <v>4.658487468106317</v>
       </c>
       <c r="I42">
-        <v>151.5456831216559</v>
+        <v>484.5867891123304</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1621,28 +1621,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>98.99242176044554</v>
+        <v>316.5409849968399</v>
       </c>
       <c r="C43">
-        <v>2.856282078934657</v>
+        <v>9.133328861099361</v>
       </c>
       <c r="D43">
-        <v>37.41350907435879</v>
+        <v>119.6345013484437</v>
       </c>
       <c r="E43">
-        <v>65.03891404324098</v>
+        <v>207.970282454474</v>
       </c>
       <c r="F43">
-        <v>33.78274905746229</v>
+        <v>108.0246797924387</v>
       </c>
       <c r="G43">
-        <v>52.86485212540332</v>
+        <v>169.0421556104793</v>
       </c>
       <c r="H43">
-        <v>5.098999571085471</v>
+        <v>16.30470613837211</v>
       </c>
       <c r="I43">
-        <v>296.047727710931</v>
+        <v>946.6506392021472</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1650,28 +1650,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>167.4234247223643</v>
+        <v>535.3579075114334</v>
       </c>
       <c r="C44">
-        <v>2.448241781943992</v>
+        <v>7.828567595228021</v>
       </c>
       <c r="D44">
-        <v>43.4263944613093</v>
+        <v>138.8614747794436</v>
       </c>
       <c r="E44">
-        <v>75.87873305044781</v>
+        <v>242.6319961968865</v>
       </c>
       <c r="F44">
-        <v>36.01018306125101</v>
+        <v>115.1471861523797</v>
       </c>
       <c r="G44">
-        <v>72.96838744069751</v>
+        <v>233.3257922510842</v>
       </c>
       <c r="H44">
-        <v>7.648499356628204</v>
+        <v>24.45705920755817</v>
       </c>
       <c r="I44">
-        <v>405.8038638746421</v>
+        <v>1297.609983694014</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1679,28 +1679,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>189.3479208169596</v>
+        <v>605.4643001617403</v>
       </c>
       <c r="C45">
-        <v>7.140705197336644</v>
+        <v>22.83332215274839</v>
       </c>
       <c r="D45">
-        <v>52.779771729899</v>
+        <v>168.7701001165545</v>
       </c>
       <c r="E45">
-        <v>54.19909503603415</v>
+        <v>173.3085687120617</v>
       </c>
       <c r="F45">
-        <v>40.65067056914419</v>
+        <v>129.9857410689235</v>
       </c>
       <c r="G45">
-        <v>79.6695658791289</v>
+        <v>254.7536711312858</v>
       </c>
       <c r="H45">
-        <v>6.191642336318069</v>
+        <v>19.79857173945185</v>
       </c>
       <c r="I45">
-        <v>429.9793715648206</v>
+        <v>1374.914275082766</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1708,28 +1708,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>151.6259763579083</v>
+        <v>484.8435370495964</v>
       </c>
       <c r="C46">
-        <v>8.772866385299304</v>
+        <v>28.05236721623374</v>
       </c>
       <c r="D46">
-        <v>61.46505062216087</v>
+        <v>196.5423950724433</v>
       </c>
       <c r="E46">
-        <v>37.9393665252239</v>
+        <v>121.3159980984432</v>
       </c>
       <c r="F46">
-        <v>49.18916758366761</v>
+        <v>157.2886821153641</v>
       </c>
       <c r="G46">
-        <v>121.3657872738132</v>
+        <v>388.0826952747624</v>
       </c>
       <c r="H46">
-        <v>6.191642336318069</v>
+        <v>19.79857173945185</v>
       </c>
       <c r="I46">
-        <v>436.5498570843913</v>
+        <v>1395.924246566295</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1737,28 +1737,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>114.49459071622</v>
+        <v>366.1111616182688</v>
       </c>
       <c r="C47">
-        <v>9.792967127775968</v>
+        <v>31.31427038091208</v>
       </c>
       <c r="D47">
-        <v>45.43068959029282</v>
+        <v>145.2704659231102</v>
       </c>
       <c r="E47">
-        <v>25.06708145416578</v>
+        <v>80.15521302932856</v>
       </c>
       <c r="F47">
-        <v>52.53031858935071</v>
+        <v>167.9724416552756</v>
       </c>
       <c r="G47">
-        <v>92.32734737394381</v>
+        <v>295.2285534605555</v>
       </c>
       <c r="H47">
-        <v>4.734785316007936</v>
+        <v>15.14008427134554</v>
       </c>
       <c r="I47">
-        <v>344.3777801677571</v>
+        <v>1101.192190338797</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1766,28 +1766,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>118.1117634725673</v>
+        <v>377.6775361632689</v>
       </c>
       <c r="C48">
-        <v>5.916584306364648</v>
+        <v>18.91903835513439</v>
       </c>
       <c r="D48">
-        <v>49.43927984825984</v>
+        <v>158.0884482104435</v>
       </c>
       <c r="E48">
-        <v>27.77703620596749</v>
+        <v>88.82064146493164</v>
       </c>
       <c r="F48">
-        <v>53.64403559124506</v>
+        <v>171.5336948352461</v>
       </c>
       <c r="G48">
-        <v>132.5344180045322</v>
+        <v>423.7958267417653</v>
       </c>
       <c r="H48">
-        <v>4.006356805852868</v>
+        <v>12.81084053729238</v>
       </c>
       <c r="I48">
-        <v>391.4294742347894</v>
+        <v>1251.646026308082</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1795,28 +1795,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>121.8765759332555</v>
+        <v>389.7160076284729</v>
       </c>
       <c r="C49">
-        <v>8.364826088308639</v>
+        <v>26.74760595036242</v>
       </c>
       <c r="D49">
-        <v>38.08160745068661</v>
+        <v>121.7708317296659</v>
       </c>
       <c r="E49">
-        <v>29.80950226981877</v>
+        <v>95.31971279163395</v>
       </c>
       <c r="F49">
-        <v>34.15398805809374</v>
+        <v>109.2117641857622</v>
       </c>
       <c r="G49">
-        <v>80.41414126117685</v>
+        <v>257.1345465624192</v>
       </c>
       <c r="H49">
-        <v>4.734785316007936</v>
+        <v>15.14008427134554</v>
       </c>
       <c r="I49">
-        <v>317.4354263773481</v>
+        <v>1015.040553119662</v>
       </c>
     </row>
   </sheetData>
